--- a/s1cDNASample/s1cDNASample_H.BROWN_10.30.20.xlsx
+++ b/s1cDNASample/s1cDNASample_H.BROWN_10.30.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8F974-25CF-DE48-AEA2-4493EDF08016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E2CBF-78B9-9A42-ADAE-9E49C2FBB8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="460" windowWidth="16380" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,12 +432,15 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:J33"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">

--- a/s1cDNASample/s1cDNASample_H.BROWN_10.30.20.xlsx
+++ b/s1cDNASample/s1cDNASample_H.BROWN_10.30.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E2CBF-78B9-9A42-ADAE-9E49C2FBB8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5CC5F6-9930-1E42-AA3E-A33DC5156A9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="460" windowWidth="16380" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>H.BROWN</t>
   </si>
   <si>
-    <t>NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
     <t>E7420L</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>10.30.20</t>
+  </si>
+  <si>
+    <t>E7490L</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G3" sqref="G3:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -495,21 +495,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -527,21 +527,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -559,21 +559,21 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -591,21 +591,21 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -614,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -623,21 +623,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -655,21 +655,21 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -687,21 +687,21 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -719,21 +719,21 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -751,21 +751,21 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -783,21 +783,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -815,21 +815,21 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -847,21 +847,21 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -879,21 +879,21 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -902,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -911,21 +911,21 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -934,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -943,21 +943,21 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -966,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -975,21 +975,21 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1007,21 +1007,21 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1030,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1039,21 +1039,21 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1062,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1071,21 +1071,21 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1094,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1103,21 +1103,21 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1126,7 +1126,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1135,21 +1135,21 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1158,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1167,21 +1167,21 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1190,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1199,21 +1199,21 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1222,7 +1222,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1231,21 +1231,21 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1254,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1263,21 +1263,21 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1295,21 +1295,21 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1318,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1327,21 +1327,21 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1350,7 +1350,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1359,21 +1359,21 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1382,7 +1382,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1391,21 +1391,21 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1414,7 +1414,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1423,21 +1423,21 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1446,7 +1446,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -1455,21 +1455,21 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1487,16 +1487,16 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
